--- a/Bot_screening/leaderboards.xlsx
+++ b/Bot_screening/leaderboards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30b5632b4c528d56/Documenti/Arkadia/Coingecko API/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitaladvisoryteam82-my.sharepoint.com/personal/davide_galbiati_digitaladvisoryteam82_onmicrosoft_com/Documents/Arkadia_GitHub/Bot_screening/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2C0B9046505C592D5ACD2F7030ABE666F250C478" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01E141A5-C82C-4E91-8E0A-3FAB686083B9}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0FBF8902CF647336400B70681790EB04E5B95AC0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68218AAE-A54E-4CCE-9629-D5BB3AAC2593}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1740" windowWidth="16920" windowHeight="10450" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1d" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,27 @@
     <t>polkadot</t>
   </si>
   <si>
+    <t>cardano</t>
+  </si>
+  <si>
+    <t>solana</t>
+  </si>
+  <si>
+    <t>shiba-inu</t>
+  </si>
+  <si>
+    <t>ethereum</t>
+  </si>
+  <si>
+    <t>staked-ether</t>
+  </si>
+  <si>
+    <t>tron</t>
+  </si>
+  <si>
+    <t>dai</t>
+  </si>
+  <si>
     <t>tether</t>
   </si>
   <si>
@@ -63,25 +84,7 @@
     <t>binance-usd</t>
   </si>
   <si>
-    <t>avalanche-2</t>
-  </si>
-  <si>
-    <t>staked-ether</t>
-  </si>
-  <si>
-    <t>ethereum</t>
-  </si>
-  <si>
-    <t>cardano</t>
-  </si>
-  <si>
-    <t>dai</t>
-  </si>
-  <si>
-    <t>matic-network</t>
-  </si>
-  <si>
-    <t>ripple</t>
+    <t>binancecoin</t>
   </si>
   <si>
     <t>dogecoin</t>
@@ -90,13 +93,10 @@
     <t>bitcoin</t>
   </si>
   <si>
-    <t>binancecoin</t>
+    <t>matic-network</t>
   </si>
   <si>
-    <t>shiba-inu</t>
-  </si>
-  <si>
-    <t>solana</t>
+    <t>ripple</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -475,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.3527025656627051E-2</v>
+        <v>3.2619957994466507E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -483,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.2644927536231828E-2</v>
+        <v>2.2036522101481701E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -491,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.2644927536231828E-2</v>
+        <v>2.0411814488952171E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -499,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.1739130434782549E-2</v>
+        <v>8.7688663992207677E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -507,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.0978811443246412E-3</v>
+        <v>8.08520044723985E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -515,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.1246947439256208E-3</v>
+        <v>7.7158088753957743E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -523,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.806753599194402E-3</v>
+        <v>4.5478141977180597E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -531,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.164502164502168E-3</v>
+        <v>2.4396165504958389E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -539,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.811594202898552E-3</v>
+        <v>2.3586099889643581E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -547,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.1123755334282293E-4</v>
+        <v>2.3586099889643581E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -555,7 +557,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2.3586099889643581E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -563,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-1.9462479989380401E-4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -571,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.7403416570620151E-3</v>
+        <v>-1.0688020556503979E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -579,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-3.9332282128413587E-3</v>
+        <v>-2.3586099889643581E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -587,7 +589,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.1148939747388731E-2</v>
+        <v>-3.0005435457452659E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -595,7 +597,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-1.9551543797551921E-2</v>
+        <v>-1.054641132174221E-2</v>
       </c>
     </row>
   </sheetData>
@@ -618,130 +620,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.18667686377841691</v>
+        <v>0.1450702662276947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>0.1186443738263757</v>
+        <v>0.12805425553441349</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1186443738263757</v>
+        <v>0.1029819156008738</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0.11773857672492639</v>
+        <v>0.10266018157417529</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>8.3333333333333315E-2</v>
+        <v>0.1020357215419667</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>7.4001516683518509E-2</v>
+        <v>0.1008976991753892</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>2.4948491234341692E-2</v>
+        <v>8.1540211643570198E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>4.6273364309307868E-3</v>
+        <v>6.8997129395750395E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-3.5361377752682131E-2</v>
+        <v>5.8797159268247218E-5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>-4.2313374399665121E-2</v>
+        <v>-1.746250892758156E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>-4.4645354760568197E-2</v>
+        <v>-1.1090425079668139E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>-6.2499999999999931E-2</v>
+        <v>-1.523769551204663E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>-7.5758564363568009E-2</v>
+        <v>-1.7072576448359279E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>-8.3610078478146638E-2</v>
+        <v>-4.054929451507383E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>-0.10506858174912879</v>
+        <v>-4.2278114712809192E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.11854188103812489</v>
+        <v>-9.9663277228582745E-2</v>
       </c>
     </row>
   </sheetData>
@@ -764,130 +766,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1925134396539033</v>
+        <v>0.15381259024570099</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1186443738263757</v>
+        <v>0.1119323516990354</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1186443738263757</v>
+        <v>0.11161061767233681</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0.11773857672492639</v>
+        <v>0.1109861576401283</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>8.3333333333333315E-2</v>
+        <v>0.1098481352735507</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>7.4001516683518509E-2</v>
+        <v>0.1076907334706964</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>2.0350449110342912E-2</v>
+        <v>7.5077248843021915E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>4.6273364309307938E-3</v>
+        <v>7.1010128261212224E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>-2.9908453270459951E-2</v>
+        <v>4.3595398308429352E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>-3.1722771823115108E-2</v>
+        <v>1.421751052350767E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>-3.5361377752682097E-2</v>
+        <v>4.6882343942012492E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>-6.2499999999999931E-2</v>
+        <v>3.9127799554300388E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>-7.0181319522519603E-2</v>
+        <v>3.5081056039031212E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>-7.3220468088536134E-2</v>
+        <v>-1.062532724056906E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-0.103028767552022</v>
+        <v>-4.0780828366828767E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.1118473203686689</v>
+        <v>-0.1086137133267443</v>
       </c>
     </row>
   </sheetData>
@@ -910,106 +912,106 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.18093042807089171</v>
+        <v>0.15182760575800569</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>9.4834850016851963E-2</v>
+        <v>0.1054770858236713</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>9.4834850016851963E-2</v>
+        <v>0.1051553517969728</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>9.3929052915402683E-2</v>
+        <v>0.1045308917647642</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>8.3333333333333315E-2</v>
+        <v>0.10339286939818659</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>5.0191992873994763E-2</v>
+        <v>0.1019098681916952</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>-2.8649989261075172E-3</v>
+        <v>7.1107942333423518E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>-1.041947986412973E-2</v>
+        <v>5.4228717929411453E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>-1.6159848903103399E-2</v>
+        <v>3.7140132433065277E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>-2.101368921009478E-2</v>
+        <v>9.3317508697994683E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>-3.5361377752682097E-2</v>
+        <v>9.0521526022926384E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>-4.5024086818116968E-2</v>
+        <v>7.2937351775593752E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-6.2499999999999931E-2</v>
+        <v>2.4571239371002991E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1017,23 +1019,23 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>-8.1361463491427796E-2</v>
+        <v>-6.1326469506336988E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-0.1227254185835856</v>
+        <v>-3.5968488608390012E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.12993942563182689</v>
+        <v>-0.10215844745138029</v>
       </c>
     </row>
   </sheetData>
@@ -1056,90 +1058,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2296119696530419</v>
+        <v>0.15370332916200249</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>8.3333333333333315E-2</v>
+        <v>0.1281593072642582</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>7.1579036063363494E-2</v>
+        <v>0.10777480799059611</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>7.1579036063363494E-2</v>
+        <v>8.0947845778479605E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>7.0673238961914214E-2</v>
+        <v>8.0626111751781054E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>4.0105612611670637E-2</v>
+        <v>7.8874651719572503E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>3.3117453755439147E-2</v>
+        <v>7.8863629352994902E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>2.6936178920506312E-2</v>
+        <v>5.3747512212094208E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>5.3021002635893558E-3</v>
+        <v>4.716808747087585E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>-1.927724232524311E-3</v>
+        <v>4.0400951268400903E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>-3.5361377752682097E-2</v>
+        <v>1.261089238787355E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1147,7 +1149,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-3.7561400250952788E-2</v>
+        <v>1.018441086370348E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1155,31 +1157,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-6.1092702034098792E-2</v>
+        <v>-1.294169021763613E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>-6.2499999999999931E-2</v>
+        <v>-6.0988181165662061E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-6.4830681741480378E-2</v>
+        <v>-3.1213878262164031E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.108913353302138</v>
+        <v>-7.7629207406188505E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1202,90 +1204,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.19866419402441521</v>
+        <v>0.13488237589688079</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>9.5388559872887399E-2</v>
+        <v>0.1133486079620518</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>9.5388559872887399E-2</v>
+        <v>0.1044430413053639</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>9.448276277143812E-2</v>
+        <v>0.1038303072786653</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>8.3333333333333315E-2</v>
+        <v>0.102662933120618</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>5.0745702730030207E-2</v>
+        <v>9.8795824879879257E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>2.2052357597264149E-2</v>
+        <v>9.6323766958340551E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>1.5835433662212552E-2</v>
+        <v>6.3998477465153317E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>1.071747522935501E-2</v>
+        <v>3.6106087914757883E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>-2.0338925377436218E-2</v>
+        <v>2.8535157382481569E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>-3.5361377752682097E-2</v>
+        <v>2.4578198012419991E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1293,39 +1295,39 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-5.7843090391797858E-2</v>
+        <v>3.8129103775440699E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>-6.2499999999999931E-2</v>
+        <v>2.7663955630399199E-4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>-8.2871918854882459E-2</v>
+        <v>-2.0717736974390451E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-9.8339044619003155E-2</v>
+        <v>-6.7608792625389588E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.11559672840656569</v>
+        <v>-0.1011244029330728</v>
       </c>
     </row>
   </sheetData>
@@ -1348,58 +1350,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.19097188633210771</v>
+        <v>0.16625284499278711</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>8.3333333333333315E-2</v>
+        <v>0.14441537314290889</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>7.2132745919398916E-2</v>
+        <v>0.1121780691310838</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>7.2132745919398916E-2</v>
+        <v>8.121656091728427E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>7.1226948817949637E-2</v>
+        <v>8.0523770290569521E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2.7489888776541731E-2</v>
+        <v>8.0050878103009607E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>2.6987886373787379E-2</v>
+        <v>7.5489287891783413E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1407,71 +1409,71 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1.4448008627803091E-2</v>
+        <v>5.2790320213037138E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-7.7860482447374389E-3</v>
+        <v>4.357956304230446E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>-3.5361377752682097E-2</v>
+        <v>4.1839338961842359E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>-4.5338925377436293E-2</v>
+        <v>3.9195104428299883E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>-4.9870425243734029E-2</v>
+        <v>1.279955092666207E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-5.9062395045358797E-2</v>
+        <v>3.3867643369265392E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>-6.2499999999999931E-2</v>
+        <v>-3.3944713797838928E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-6.4649661833253907E-2</v>
+        <v>-3.5295399138398673E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.1205842595786356</v>
+        <v>-7.7817865944976986E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1494,58 +1496,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1928986686057107</v>
+        <v>0.1251126929687526</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>8.3333333333333315E-2</v>
+        <v>0.1192152546491362</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>7.213274591939893E-2</v>
+        <v>8.9612025825781344E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>7.213274591939893E-2</v>
+        <v>8.891923519906661E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>7.1226948817949637E-2</v>
+        <v>8.8701024079421459E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2.7489888776541731E-2</v>
+        <v>8.8446343011506667E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>1.9638753571458091E-2</v>
+        <v>8.3231752800280473E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1553,71 +1555,71 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>9.3496246937980476E-3</v>
+        <v>6.6080201177681444E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>2.825959314500848E-3</v>
+        <v>3.5025285503356159E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-3.5361377752682097E-2</v>
+        <v>-3.838132231918593E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>-4.2933362787294163E-2</v>
+        <v>-1.771441728243648E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>-4.5338925377436307E-2</v>
+        <v>-2.6164468040694531E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>-5.2147033098031183E-2</v>
+        <v>-4.4741874354887877E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>-6.2499999999999931E-2</v>
+        <v>-5.0233555593412353E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-6.3592764295010734E-2</v>
+        <v>-6.8901004320859341E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-6.9973439334307636E-2</v>
+        <v>-8.6213330853474074E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1640,130 +1642,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.18716253093840671</v>
+        <v>0.17460997050360899</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>8.3333333333333315E-2</v>
+        <v>0.17391717987689431</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>4.9405473192126251E-2</v>
+        <v>0.17365333137946559</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>4.9405473192126251E-2</v>
+        <v>0.16905738197318571</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>4.8499676090676971E-2</v>
+        <v>0.100847030063572</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>2.8773687989123609E-2</v>
+        <v>9.2490239879685077E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1.912608673204319E-2</v>
+        <v>9.1102376299243754E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1.706921007295786E-2</v>
+        <v>6.6556111614392011E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1.362021210423176E-2</v>
+        <v>6.1693186754417317E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>4.7626160492690653E-3</v>
+        <v>3.4764389084415398E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-1.9697899736410559E-2</v>
+        <v>-2.0663615197190649E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>-3.5361377752682097E-2</v>
+        <v>-2.3819774284823299E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>-3.755701870127269E-2</v>
+        <v>-3.279668726849759E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>-4.5836074979844182E-2</v>
+        <v>-6.8054887355106508E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-5.2176252772451401E-2</v>
+        <v>-7.2275152666287409E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-6.2499999999999931E-2</v>
+        <v>-0.1712112755313018</v>
       </c>
     </row>
   </sheetData>
@@ -1786,34 +1788,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.19100130253149691</v>
+        <v>0.17487572486847169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>8.3333333333333315E-2</v>
+        <v>0.17472840437544521</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>5.18942368483261E-2</v>
+        <v>0.17404419500216001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>4.8499676090676958E-2</v>
+        <v>0.16986860647173649</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1821,15 +1823,15 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4.7940555928063178E-2</v>
+        <v>9.4359516180374067E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>4.2404457246107141E-2</v>
+        <v>7.7849158695617454E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1837,39 +1839,39 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.7183250969903941E-2</v>
+        <v>7.14126054058844E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>2.7183250969903941E-2</v>
+        <v>5.9063658770119577E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1.136550267081831E-2</v>
+        <v>4.4370956813678038E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>1.033030524238922E-2</v>
+        <v>-9.7154721781575713E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>-1.7459606172953251E-2</v>
+        <v>-1.9831512736185782E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1877,39 +1879,39 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-3.004660129563359E-2</v>
+        <v>-2.8462496243568822E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>-3.5361377752682131E-2</v>
+        <v>-3.109105308370046E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>-3.8479903060734753E-2</v>
+        <v>-7.8566548789828133E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>-4.4697899736410668E-2</v>
+        <v>-0.11657374072057899</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-6.2499999999999931E-2</v>
+        <v>-0.1720225000298527</v>
       </c>
     </row>
   </sheetData>
@@ -1932,50 +1934,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.2066263025314968</v>
+        <v>0.19212015565866339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>8.3333333333333315E-2</v>
+        <v>0.19197283516563701</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>7.1755490044165274E-2</v>
+        <v>0.1912886257923517</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>5.4277368923249407E-2</v>
+        <v>0.18711303726192829</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>5.4164047675074913E-2</v>
+        <v>0.10655691783544299</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>5.2703743294275567E-2</v>
+        <v>6.4854447650697283E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1983,79 +1985,79 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>5.0439064923392243E-2</v>
+        <v>5.4979794052174673E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>5.0439064923392243E-2</v>
+        <v>4.632041309549384E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>4.7292042778853988E-2</v>
+        <v>3.6804703555796701E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>5.7962077805350579E-3</v>
+        <v>-2.90461481216021E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>4.7280643460306943E-3</v>
+        <v>-3.6911631608513669E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>-1.9056874095384931E-2</v>
+        <v>-1.2568858636575369E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>-3.2384415439409203E-2</v>
+        <v>-1.384662229350871E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>-3.5361377752682097E-2</v>
+        <v>-9.8136195332352183E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>-6.2499999999999931E-2</v>
+        <v>-0.12606496175822099</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-7.6275104314068295E-2</v>
+        <v>-0.18926693082004439</v>
       </c>
     </row>
   </sheetData>
@@ -2078,10 +2080,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>4.9783549783549819E-2</v>
+        <v>9.6860263146351724E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2089,95 +2091,95 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4.1174084480156407E-2</v>
+        <v>3.4795012051151132E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3.7486446132472692E-2</v>
+        <v>3.016750207727778E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>3.4049896499410988E-2</v>
+        <v>2.5783296703001699E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2.7738264580369959E-2</v>
+        <v>1.891330543674509E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>2.1738675626420581E-2</v>
+        <v>1.8456807352886941E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>2.1566195331033811E-2</v>
+        <v>1.368740468087117E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>1.99720083468558E-2</v>
+        <v>1.28028100937147E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>1.7043431728564911E-2</v>
+        <v>1.0551877368171409E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1.0843592980563531E-2</v>
+        <v>9.3844715145324289E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>1.8115942028984131E-3</v>
+        <v>7.9175581329266054E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>1.8115942028984131E-3</v>
+        <v>7.8385198986325316E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>9.0579710144913367E-4</v>
+        <v>7.3581548321462334E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2185,23 +2187,23 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>6.7421482706147987E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>6.1219052948211471E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-1.902173913043486E-2</v>
+        <v>-7.2771482706147509E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2224,42 +2226,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.20274280738586581</v>
+        <v>0.2027251389189455</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>9.4578638708338603E-2</v>
+        <v>0.20250838951055089</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>8.3333333333333315E-2</v>
+        <v>0.2020409295456603</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>7.1755490044165288E-2</v>
+        <v>0.19414333357122199</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>6.3180821329002892E-2</v>
+        <v>0.1231246889960947</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2267,63 +2269,63 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5.0439064923392257E-2</v>
+        <v>6.9142754940998585E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>5.0439064923392257E-2</v>
+        <v>4.9475707385080163E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>4.5700942173827377E-2</v>
+        <v>4.2009350076262338E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>4.5674508005227918E-2</v>
+        <v>4.1881638410126779E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>3.362979845007686E-2</v>
+        <v>6.9680803536020103E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>7.2589153782992299E-3</v>
+        <v>-3.0943185402001329E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>5.7962077805350856E-3</v>
+        <v>-7.5167807997580998E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>-3.5361377752682097E-2</v>
+        <v>-1.8718832333907601E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2331,23 +2333,23 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>-5.4459562388407809E-2</v>
+        <v>-1.9757676741183269E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-6.2499999999999931E-2</v>
+        <v>-0.1094494056827742</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-7.6977503510758133E-2</v>
+        <v>-0.20001923457335299</v>
       </c>
     </row>
   </sheetData>
@@ -2370,34 +2372,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.20080482288974169</v>
+        <v>0.2099359566261671</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1148411489626455</v>
+        <v>0.2097192072177724</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>8.3333333333333315E-2</v>
+        <v>0.2092517472528819</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>6.6151118358705838E-2</v>
+        <v>0.20135415127844361</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2405,95 +2407,95 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5.540295187583695E-2</v>
+        <v>0.1059204363703834</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>5.1995455567458881E-2</v>
+        <v>5.9503551515543651E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>4.9028217316892622E-2</v>
+        <v>4.734264486205831E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>2.7711792196119588E-2</v>
+        <v>3.3484875292376128E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>2.7711792196119588E-2</v>
+        <v>1.751245311114465E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>2.8174735201048772E-3</v>
+        <v>-6.8223652718006483E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>-1.6931064946737601E-2</v>
+        <v>-1.8367010881428059E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>-1.8382110262726369E-2</v>
+        <v>-2.953076735664208E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>-3.5361377752682097E-2</v>
+        <v>-4.6419526568522489E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>-4.8295926230615252E-2</v>
+        <v>-5.4707030244743327E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-6.2499999999999931E-2</v>
+        <v>-0.1292357112329105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-7.2510725174633084E-2</v>
+        <v>-0.20723005228057459</v>
       </c>
     </row>
   </sheetData>
@@ -2516,130 +2518,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.22258700110756341</v>
+        <v>0.21707540780943479</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.11656798063767219</v>
+        <v>0.21685865840104021</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>9.664726493594028E-2</v>
+        <v>0.2163911984361496</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>8.3333333333333315E-2</v>
+        <v>0.20849360246171131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>7.533083981516725E-2</v>
+        <v>0.18320165170775521</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>7.533083981516725E-2</v>
+        <v>0.1230737441026562</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>4.0064161836966788E-2</v>
+        <v>8.631577768475307E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>3.8640772237444901E-2</v>
+        <v>4.442143980732919E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>3.6330216462696643E-2</v>
+        <v>3.7538676611131742E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>3.0687982672310061E-2</v>
+        <v>1.326972607659054E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-3.5361377752682097E-2</v>
+        <v>1.7887233252815991E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>-4.3382110262726453E-2</v>
+        <v>-3.0391453028438889E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>-6.050706473847027E-2</v>
+        <v>-3.6788436935367319E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>-6.2499999999999931E-2</v>
+        <v>-4.7589677424217033E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-8.7775952754057515E-2</v>
+        <v>-0.1532522548927884</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-9.9743840643042619E-2</v>
+        <v>-0.21436950346384229</v>
       </c>
     </row>
   </sheetData>
@@ -2662,50 +2664,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.22258700110756349</v>
+        <v>0.2069417979623375</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.12562296911314139</v>
+        <v>0.20685754737073209</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>9.6647264935940266E-2</v>
+        <v>0.20647433799744691</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>8.3333333333333315E-2</v>
+        <v>0.19927856104580821</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>7.5330839815167236E-2</v>
+        <v>0.1732847912690525</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>7.5330839815167236E-2</v>
+        <v>0.1086911962112881</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2713,79 +2715,79 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.6889154573691862E-2</v>
+        <v>0.1082490652959099</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>4.944013137848069E-2</v>
+        <v>9.1319843147132929E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>3.9096107625930833E-2</v>
+        <v>6.2379823033343947E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>3.0687982672310061E-2</v>
+        <v>3.007957346889609E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>7.6747534433478579E-3</v>
+        <v>-1.4660053900808661E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>-1.7741084621700699E-2</v>
+        <v>-1.1894434616281211E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>-3.5361377752682097E-2</v>
+        <v>-1.8519486720912089E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>-6.2499999999999931E-2</v>
+        <v>-2.3017878102185099E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-0.1104840816993657</v>
+        <v>-0.1185802737451143</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.1216455500447521</v>
+        <v>-0.2044526430251396</v>
       </c>
     </row>
   </sheetData>
@@ -2808,42 +2810,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.25313689927456973</v>
+        <v>0.25457831040527901</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>9.9510783426487476E-2</v>
+        <v>0.20498876241962649</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>8.3333333333333315E-2</v>
+        <v>0.20443452380034019</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>7.2837741126416514E-2</v>
+        <v>0.20239506121773321</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>5.373025396739408E-2</v>
+        <v>0.19753683567917299</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2851,87 +2853,87 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5.1521316005643497E-2</v>
+        <v>0.1094469002214643</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5.1521316005643497E-2</v>
+        <v>0.10178673026192619</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>3.6744520885208229E-2</v>
+        <v>8.6025033443581422E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>3.3099105912228768E-2</v>
+        <v>6.6015552276511236E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>2.5755321540175079E-2</v>
+        <v>2.310110896504082E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>6.8784588627863116E-3</v>
+        <v>-1.03102300693643E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>4.1666666666666657E-3</v>
+        <v>-1.1570548734169069E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>-1.774108462170073E-2</v>
+        <v>-1.3793027031647431E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>-3.5361377752682097E-2</v>
+        <v>-1.65671319118493E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-5.2581623104112747E-2</v>
+        <v>-0.1139303532248047</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-8.3250693881667587E-2</v>
+        <v>-0.2024128288280328</v>
       </c>
     </row>
   </sheetData>
@@ -2954,74 +2956,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.23513689927456949</v>
+        <v>0.23291100634468481</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.16998434505850679</v>
+        <v>0.18276045835903221</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>8.3333333333333315E-2</v>
+        <v>0.1826672197397459</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>7.6019445356507315E-2</v>
+        <v>0.179990757157139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>7.4563587300727374E-2</v>
+        <v>0.17513753161857881</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>7.2837741126416514E-2</v>
+        <v>9.3145412124879368E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5.1521316005643497E-2</v>
+        <v>8.8844680807122114E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>5.1521316005643497E-2</v>
+        <v>7.091010983845808E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>2.8447750532114961E-2</v>
+        <v>5.8038309771437681E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -3029,55 +3031,55 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>2.131856306710047E-2</v>
+        <v>5.4979246362752386E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>6.8784588627863116E-3</v>
+        <v>1.815097197825417E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.7741084621700709E-2</v>
+        <v>-1.2268269191566079E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-3.5361377752682097E-2</v>
+        <v>-3.058020345257147E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>-5.3147233963841342E-2</v>
+        <v>-5.2017698795279482E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-5.8333333333333258E-2</v>
+        <v>-8.8934214345360252E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-7.7787939779559473E-2</v>
+        <v>-0.1807455247674386</v>
       </c>
     </row>
   </sheetData>
@@ -3100,130 +3102,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.24323406526647259</v>
+        <v>0.30355133579644672</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.15266685779195319</v>
+        <v>0.17249169690170321</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1231892566772621</v>
+        <v>0.1623204582824169</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>8.3333333333333315E-2</v>
+        <v>0.15972199569980999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>7.5555650792790793E-2</v>
+        <v>0.1504727701612498</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>6.7094677714073833E-2</v>
+        <v>0.1078078272326907</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>4.6675648607142052E-2</v>
+        <v>8.7485137384314765E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>3.4890494325667737E-2</v>
+        <v>7.8099453188732584E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>2.7383195671871041E-2</v>
+        <v>5.6957775518205363E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>6.0667705510979927E-3</v>
+        <v>5.4533946827810549E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>6.0667705510979927E-3</v>
+        <v>5.1260729514245248E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>-3.1978900582360477E-2</v>
+        <v>6.2118332627500404E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>-3.5259178568573017E-2</v>
+        <v>-6.6225504315224181E-4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>-3.8576086591759193E-2</v>
+        <v>-2.4488902210374058E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-8.0815923207227608E-2</v>
+        <v>-8.1880571431104512E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.1208333333333332</v>
+        <v>-0.1604767633101096</v>
       </c>
     </row>
   </sheetData>
@@ -3246,66 +3248,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.2472420812985367</v>
+        <v>0.34079767838135111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.17153315689601939</v>
+        <v>0.20973803948660749</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.14880405843610281</v>
+        <v>0.19956680086732129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0.13784672422926009</v>
+        <v>0.19696833828471441</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.12953846302646849</v>
+        <v>0.18771911274615419</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1206047800399536</v>
+        <v>9.1316456474268407E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0.1164525122321734</v>
+        <v>8.8503455875314066E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>8.3333333333333315E-2</v>
+        <v>7.8673151682484843E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -3313,63 +3315,63 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>4.280453230201773E-2</v>
+        <v>7.362795777701342E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>-8.3613901645085524E-3</v>
+        <v>3.8444882907267927E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>-5.595013766146234E-2</v>
+        <v>3.0165014423314429E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>-7.7266562782235371E-2</v>
+        <v>1.6065794858825221E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>-7.7266562782235371E-2</v>
+        <v>-8.2102848627868055E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>-8.0815923207227608E-2</v>
+        <v>-2.8919034059888521E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-0.1208333333333332</v>
+        <v>-0.10102520628980929</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.12190941992509249</v>
+        <v>-0.19772310589501399</v>
       </c>
     </row>
   </sheetData>
@@ -3392,66 +3394,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.23728192193598691</v>
+        <v>0.30710829559560188</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.17698298388563871</v>
+        <v>0.17632173125021031</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1169598466742673</v>
+        <v>0.165877418081572</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0.10933037422557659</v>
+        <v>0.16283995549896521</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1019830151319452</v>
+        <v>0.15493855517369859</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>8.3333333333333315E-2</v>
+        <v>7.8708818815863696E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>7.8822683344778807E-2</v>
+        <v>6.3109185443651641E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>6.6550725985899492E-2</v>
+        <v>4.8915746445676117E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -3459,63 +3461,63 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>2.8208785564138509E-3</v>
+        <v>4.8434996413766633E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>-1.2471876791897089E-2</v>
+        <v>4.3203506139256387E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>-3.3788301912670099E-2</v>
+        <v>3.3105646844022153E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>-3.3788301912670099E-2</v>
+        <v>1.7461062945071229E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>-3.9449473066062953E-2</v>
+        <v>-8.2346439507218171E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>-7.8431159055527305E-2</v>
+        <v>-4.8461118662482323E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-8.0815923207227608E-2</v>
+        <v>-9.3712870440645649E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.1208333333333332</v>
+        <v>-0.1640337231092647</v>
       </c>
     </row>
   </sheetData>
@@ -3538,106 +3540,106 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.23728192193598691</v>
+        <v>0.30605139805735881</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1888526771796952</v>
+        <v>0.17526483371196711</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1046899080239606</v>
+        <v>0.16482052054332891</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>8.3639073310876513E-2</v>
+        <v>0.16178305796072201</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>8.3333333333333315E-2</v>
+        <v>0.1538816576354555</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>5.9504173382318448E-2</v>
+        <v>8.09946072037004E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5.8048322943525452E-2</v>
+        <v>6.4625738473712349E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>4.0909700344873963E-2</v>
+        <v>4.8323365092612758E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>3.2982668662648387E-2</v>
+        <v>4.4534374458271679E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1.1666243541875371E-2</v>
+        <v>3.5800657764035411E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>1.1666243541875371E-2</v>
+        <v>3.2626645128728267E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>-3.2539862634656552E-2</v>
+        <v>2.8137649593136971E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>-3.2976613600981829E-2</v>
+        <v>2.4871691181398048E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -3645,23 +3647,23 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-5.8380430749804667E-2</v>
+        <v>-4.9888321449469378E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-0.1208333333333332</v>
+        <v>-9.5505964297907281E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.12429418407679289</v>
+        <v>-0.16297682557102161</v>
       </c>
     </row>
   </sheetData>
@@ -3684,10 +3686,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2.794773236840685E-2</v>
+        <v>9.4509378038238168E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3695,119 +3697,119 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1.5605902661974581E-2</v>
+        <v>7.5839244043265669E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1.317073042253674E-2</v>
+        <v>2.9105917735401009E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>8.0275916666974166E-3</v>
+        <v>2.0057441414629E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4.3290043290043351E-3</v>
+        <v>1.977378654420929E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>1.8115942028984131E-3</v>
+        <v>1.570666687156335E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>1.8115942028984131E-3</v>
+        <v>1.517743759405585E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>9.0579710144913367E-4</v>
+        <v>1.4802728200441279E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>7.1123755334300681E-4</v>
+        <v>1.4628353246810119E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6.5046863183757936E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>7.6684079446403489E-4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>-1.902173913043486E-2</v>
+        <v>6.558015361371617E-4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>-2.3540361174164231E-2</v>
+        <v>1.754364696508618E-4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>-2.884264422080219E-2</v>
+        <v>-9.4429908119380082E-5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>-4.0107528981743787E-2</v>
+        <v>-4.405700918805721E-4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>-4.0853200582476892E-2</v>
+        <v>-4.384723100913368E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3830,106 +3832,106 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.23922744722781569</v>
+        <v>0.30734245794168058</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.18755644489486961</v>
+        <v>0.17560789359628901</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.10163180404842551</v>
+        <v>0.16566658042765059</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>8.3333333333333315E-2</v>
+        <v>0.16241001424488219</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>8.0560491444716872E-2</v>
+        <v>0.15450771751977729</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>5.9951272515361628E-2</v>
+        <v>8.1416448787026044E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5.7421954662593852E-2</v>
+        <v>6.0725993498071791E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>4.0909700344873963E-2</v>
+        <v>4.2129159270960372E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>3.298266866264838E-2</v>
+        <v>4.0452577879657517E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1.166624354187535E-2</v>
+        <v>3.7664904567628291E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>1.166624354187535E-2</v>
+        <v>2.770307387806276E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>-3.2976613600981829E-2</v>
+        <v>2.4774847870192969E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>-3.6931820557403343E-2</v>
+        <v>2.3363665310114939E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -3937,23 +3939,23 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-6.0046172004663202E-2</v>
+        <v>-5.0708786283033949E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>-0.1208333333333332</v>
+        <v>-9.1500865430116388E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.12429418407679289</v>
+        <v>-0.1642678854553434</v>
       </c>
     </row>
   </sheetData>
@@ -3965,12 +3967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
@@ -3982,127 +3981,127 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.4834850016851796E-2</v>
+        <v>0.1134664666595937</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>9.4834850016851796E-2</v>
+        <v>8.460695437196096E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>9.3929052915402517E-2</v>
+        <v>6.5133253375693284E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>7.4001516683518509E-2</v>
+        <v>3.3655631684358582E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>5.7255424676099231E-2</v>
+        <v>2.513155157664845E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3.890580001783796E-3</v>
+        <v>2.4140844665003169E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.18304273216063E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2.1402734154079929E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>-6.6782199006994516E-3</v>
+        <v>2.1206065954538961E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.0422592835147459E-2</v>
+        <v>2.0977534510585621E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>-2.560455192034131E-2</v>
+        <v>1.8251299391666718E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>-2.6974820246860369E-2</v>
+        <v>1.7606183816650869E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>-3.9149256540560923E-2</v>
+        <v>8.5414921694124523E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>-4.668836588437987E-2</v>
+        <v>8.466017010001381E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>-4.7963148092070147E-2</v>
+        <v>8.2046235727931439E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-7.1827214255290997E-2</v>
+        <v>-1.8721295166392041E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4128,127 +4127,127 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.4834850016851796E-2</v>
+        <v>0.1117077240543969</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>9.4834850016851796E-2</v>
+        <v>8.5434054289299413E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>9.3929052915402517E-2</v>
+        <v>7.5815637580034984E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>7.4001516683518509E-2</v>
+        <v>2.9036928677698009E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>4.0616489567946182E-2</v>
+        <v>2.45381969485324E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.4367617382645038E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>-1.4965512718379049E-2</v>
+        <v>2.2632709003959441E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>-3.2295778636440023E-2</v>
+        <v>2.0809379525963869E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>-3.325335905964584E-2</v>
+        <v>2.0612711326422901E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>-3.536449766886457E-2</v>
+        <v>2.0384179882469562E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>-3.9149256540560923E-2</v>
+        <v>1.7657944763550659E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>-4.8678820593154627E-2</v>
+        <v>1.110869379919772E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-5.1245577561366877E-2</v>
+        <v>6.2837778642078554E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>-7.0351844240640504E-2</v>
+        <v>-3.264053254397751E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>-7.2638438753841836E-2</v>
+        <v>-5.5609845736651854E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.24999999999999989</v>
+        <v>-1.8127940538275981E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4274,127 +4273,127 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1186443738263757</v>
+        <v>0.11891768281367231</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>0.1186443738263757</v>
+        <v>8.4622737728099362E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.11773857672492639</v>
+        <v>7.3462861212051908E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>7.4001516683518509E-2</v>
+        <v>4.0461006660685188E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>4.1829897728116093E-2</v>
+        <v>3.7009265988376457E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3.6756569890371973E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-2.644886832727986E-2</v>
+        <v>3.6306989594622363E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-2.8286429195105871E-2</v>
+        <v>3.543117219723517E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>-3.9289837042703377E-2</v>
+        <v>3.5040039026935067E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>-5.1245577561366877E-2</v>
+        <v>2.3917334893250718E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>-5.3774712359701257E-2</v>
+        <v>2.3697646261304162E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>-6.1813671731508438E-2</v>
+        <v>1.499094584341645E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>-8.0815923207227608E-2</v>
+        <v>1.244185751131417E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>-8.9639678068533762E-2</v>
+        <v>5.3662375149923832E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>-8.9882869544033614E-2</v>
+        <v>3.976979300966306E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.24999999999999989</v>
+        <v>-3.405075025042878E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4406,9 +4405,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
@@ -4420,127 +4422,127 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1186443738263757</v>
+        <v>0.1176834665204357</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.1186443738263757</v>
+        <v>7.7469154192916223E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.11773857672492639</v>
+        <v>6.4446777587131771E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>8.3333333333333315E-2</v>
+        <v>4.7266675984516088E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>7.4001516683518509E-2</v>
+        <v>4.5889231757930013E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>3.6839726852567922E-2</v>
+        <v>3.3141533111534213E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3.0323028071535418E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>-3.10187880997994E-2</v>
+        <v>2.6871287399226691E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>-3.3825356168386458E-2</v>
+        <v>2.66185913012222E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>-3.5390624053021853E-2</v>
+        <v>2.5836011005472559E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>-6.5809723300620238E-2</v>
+        <v>2.529319360808539E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>-6.6843325484947216E-2</v>
+        <v>2.331694011278911E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>-7.2212285249706076E-2</v>
+        <v>-6.1915905701109414E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>-7.6245577561366962E-2</v>
+        <v>-9.9630877773182643E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>-8.0815923207227594E-2</v>
+        <v>-2.391277166127901E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1006351732973422</v>
+        <v>-2.6344949758477499E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4566,127 +4568,127 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1186443738263757</v>
+        <v>0.1192850049332385</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>0.1186443738263757</v>
+        <v>8.6219321473397725E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.11773857672492639</v>
+        <v>8.5846606859195346E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>8.3333333333333315E-2</v>
+        <v>5.501511149149229E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>7.4001516683518509E-2</v>
+        <v>5.436779794211348E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>4.2544884314913912E-2</v>
+        <v>3.2645308547359503E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>-4.1888216732261979E-2</v>
+        <v>3.0177753465087331E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>-4.1955437469199518E-2</v>
+        <v>2.707413393893748E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>-4.6397075665924978E-2</v>
+        <v>2.647331669477411E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>-6.2499999999999931E-2</v>
+        <v>2.615795458991961E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>-8.0815923207227608E-2</v>
+        <v>2.514791900163731E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>-8.5712897049947792E-2</v>
+        <v>1.9719093934636389E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>-8.6779551744993216E-2</v>
+        <v>7.798808515981105E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>-0.1006358214638059</v>
+        <v>6.384102947268714E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>-0.10597376026755589</v>
+        <v>-2.376749705483092E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1078459910045637</v>
+        <v>-2.5075885464366E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4709,130 +4711,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.19053786763942079</v>
+        <v>0.15117811022921029</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>0.1186443738263757</v>
+        <v>0.12764493441104829</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.1186443738263757</v>
+        <v>0.102951830941775</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.11773857672492639</v>
+        <v>7.2721917255088184E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>8.3333333333333315E-2</v>
+        <v>6.1068996640503359E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>7.4001516683518509E-2</v>
+        <v>6.074726261380483E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>3.2679683622090727E-2</v>
+        <v>6.0122802581596253E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-6.0371980159845781E-2</v>
+        <v>5.898478021501867E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>-6.2499999999999931E-2</v>
+        <v>2.9617383914461091E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>-6.7744252166304753E-2</v>
+        <v>2.9058907106314539E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>-7.5897996215935778E-2</v>
+        <v>1.263879257079299E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>-8.0815923207227608E-2</v>
+        <v>-1.4115593292827119E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>-0.1006358214638059</v>
+        <v>-4.7651760243542767E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>-0.10859163228190601</v>
+        <v>-8.1821325816319561E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>-0.10992342336573729</v>
+        <v>-1.276246224460818E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>-0.1149854421878314</v>
+        <v>-5.775035826821226E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Bot_screening/leaderboards.xlsx
+++ b/Bot_screening/leaderboards.xlsx
@@ -37,7 +37,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="27d" sheetId="28" state="visible" r:id="rId28"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="28d" sheetId="29" state="visible" r:id="rId29"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29d" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="30d" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,8 +46,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -90,10 +89,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -461,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,116 +469,121 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>44780</v>
-      </c>
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="n">
         <v>44781</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="2" t="n">
         <v>44783</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="2" t="n">
         <v>44784</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="2" t="n">
         <v>44785</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="2" t="n">
         <v>44786</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="2" t="n">
         <v>44787</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="2" t="n">
         <v>44788</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="2" t="n">
         <v>44789</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="2" t="n">
         <v>44790</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="2" t="n">
         <v>44791</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="2" t="n">
         <v>44792</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="2" t="n">
         <v>44793</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="2" t="n">
         <v>44794</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="2" t="n">
         <v>44795</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="2" t="n">
         <v>44796</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="2" t="n">
         <v>44797</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="2" t="n">
         <v>44798</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="2" t="n">
         <v>44799</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="2" t="n">
         <v>44800</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="2" t="n">
         <v>44801</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="2" t="n">
         <v>44802</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="2" t="n">
         <v>44803</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="2" t="n">
         <v>44804</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="2" t="n">
         <v>44806</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="2" t="n">
         <v>44807</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="2" t="n">
         <v>44808</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="2" t="n">
         <v>44809</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="2" t="n">
         <v>44810</v>
       </c>
-      <c r="AG1" s="2" t="inlineStr">
+      <c r="AG1" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-0.004495742980263505</v>
-      </c>
       <c r="C2" t="n">
-        <v>-0.03368938278574923</v>
+        <v>-0.03237619408904382</v>
       </c>
       <c r="D2" t="n">
         <v>0.03724634258490435</v>
@@ -666,23 +670,26 @@
         <v>0.007698807104596208</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.009001711673723194</v>
+        <v>0.0378140802600454</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1540914237782512</v>
+        <v>-0.004143636766950294</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.2025725106220384</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.00478724036011708</v>
-      </c>
       <c r="C3" t="n">
-        <v>-0.0341283827857492</v>
+        <v>-0.03232717016536899</v>
       </c>
       <c r="D3" t="n">
         <v>0.03724634258490435</v>
@@ -769,23 +776,26 @@
         <v>0.007698807104596208</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.008988711673723154</v>
+        <v>0.0372040802600454</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1507754638157908</v>
+        <v>-0.002636239348196465</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2009204693818602</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>binance-usd</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.005495741979263478</v>
-      </c>
       <c r="C4" t="n">
-        <v>-0.03278055757245554</v>
+        <v>-0.03237619408904382</v>
       </c>
       <c r="D4" t="n">
         <v>0.03724634258490435</v>
@@ -872,229 +882,238 @@
         <v>0.007698807104596208</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.008988711673723154</v>
+        <v>0.0374470802600454</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1421655618713779</v>
+        <v>0.001024424400514416</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.195525883668336</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01083720665609603</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.02109571509093083</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04944563231641984</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01338564593199448</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.006948937986743038</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01826895021445522</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.01842142605393925</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.01085023008166996</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.003825617638906738</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.006024309017306211</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01410430210666573</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.006105357002386833</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.05955375624427884</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0133041815793608</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.01863293008839429</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.03811593486858322</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.004363918208091388</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.01992592990624788</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.04429660261836117</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.02530889083579894</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.008478566184183476</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.02197189686467928</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.0004502824893943165</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0002267727176418673</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.008963407070947321</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.004625560225884436</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.002466676920931564</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.003552603323241611</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.01857752692492184</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.02977471901075383</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.0009138755346500241</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.08390799435643785</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.001567671874765179</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.00979463705945036</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C6" t="n">
+        <v>-0.02325452137277044</v>
+      </c>
+      <c r="D6" t="n">
         <v>-0.01930437135737659</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>0.0146624151078113</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>-0.0163014880965849</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>0.0007557040101761068</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>0.02237541852653508</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>0.02681222616920942</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>-0.009639203425454945</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>0.01416296088882392</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L6" t="n">
         <v>-0.01643281135370973</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M6" t="n">
         <v>-0.01968977089335935</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N6" t="n">
         <v>-0.03401031666950886</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O6" t="n">
         <v>-0.04114015202403452</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>0.03137046909590634</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>-0.01882095326512169</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R6" t="n">
         <v>0.001875723403996825</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S6" t="n">
         <v>-0.001984984487695301</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T6" t="n">
         <v>0.008742324018006295</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U6" t="n">
         <v>-0.006107844001515601</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V6" t="n">
         <v>0.03189310529597177</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W6" t="n">
         <v>0.001601538412802799</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X6" t="n">
         <v>-0.001234216293236617</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y6" t="n">
         <v>0.007209958759275433</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z6" t="n">
         <v>-0.001758742605196826</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA6" t="n">
         <v>0.01895708862135554</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB6" t="n">
         <v>-0.00235088510811356</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC6" t="n">
         <v>0.07482374104487002</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD6" t="n">
         <v>0.03700872831723863</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE6" t="n">
         <v>-0.01123989646744029</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0.01290733976760169</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.09378079645701685</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.001972382103285745</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.002940632420707724</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.02109571509093083</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.04944563231641984</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.01338564593199448</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.006948937986743038</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.01826895021445522</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.01842142605393925</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-0.01085023008166996</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-0.003825617638906738</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.006024309017306211</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.01410430210666573</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-0.006105357002386833</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-0.05955375624427884</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.0133041815793608</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-0.01863293008839429</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.03811593486858322</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.004363918208091388</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.01992592990624788</v>
-      </c>
-      <c r="U6" t="n">
-        <v>-0.04429660261836117</v>
-      </c>
-      <c r="V6" t="n">
-        <v>-0.02530889083579894</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.008478566184183476</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.02197189686467928</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>-0.0004502824893943165</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.0002267727176418673</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.008963407070947321</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.004625560225884436</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.002466676920931564</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.003552603323241611</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.01857752692492184</v>
-      </c>
       <c r="AF6" t="n">
-        <v>0.04127890371573605</v>
+        <v>-0.001563511905321578</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.08645709825739606</v>
+        <v>-0.004505241899005166</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.06291249044653352</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.01545885639093439</v>
-      </c>
       <c r="C7" t="n">
-        <v>0.02567134780785803</v>
+        <v>0.04045617585315259</v>
       </c>
       <c r="D7" t="n">
         <v>-0.01442211812553684</v>
@@ -1181,23 +1200,26 @@
         <v>0.01457638619675587</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03771458502957353</v>
+        <v>-0.00378433732237226</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.04896219580290252</v>
+        <v>-0.0040936367669503</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.002695608338366604</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.01093175046786652</v>
-      </c>
       <c r="C8" t="n">
-        <v>-0.02430043880954704</v>
+        <v>-0.02457988805309425</v>
       </c>
       <c r="D8" t="n">
         <v>0.01672804990197746</v>
@@ -1284,23 +1306,26 @@
         <v>-0.001698132589373238</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01706054510272677</v>
+        <v>0.004733667552379903</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.01956092115145534</v>
+        <v>-0.007098895970556653</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.01107605208086192</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-0.00449267676135026</v>
-      </c>
       <c r="C9" t="n">
-        <v>-0.0195420846025938</v>
+        <v>-0.01200770050497179</v>
       </c>
       <c r="D9" t="n">
         <v>-0.004430131849514463</v>
@@ -1387,23 +1412,26 @@
         <v>0.002768415299976205</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.007458139315447473</v>
+        <v>0.01609253243501056</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.03311727950191852</v>
+        <v>-0.002569571028503445</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.01502539655188662</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.001677149438000909</v>
-      </c>
       <c r="C10" t="n">
-        <v>0.007312335849163652</v>
+        <v>0.01067423641526122</v>
       </c>
       <c r="D10" t="n">
         <v>-0.0191446348587048</v>
@@ -1490,23 +1518,26 @@
         <v>0.01053256025321081</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03663746831369018</v>
+        <v>0.01142237226759727</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.04864900896297383</v>
+        <v>-0.0008761335494470363</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.07305548743041711</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.005495741979263478</v>
-      </c>
       <c r="C11" t="n">
-        <v>0.03368938278574923</v>
+        <v>0.03237619408904382</v>
       </c>
       <c r="D11" t="n">
         <v>-0.03724634258490435</v>
@@ -1593,10 +1624,13 @@
         <v>-0.007698807104596208</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.008988711673723154</v>
+        <v>-0.03879808026004539</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.151260729806944</v>
+        <v>0.0040936367669503</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2017628156497311</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1619,108 +1653,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1359246544491568</v>
+        <v>0.1169485608772284</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1096916314587731</v>
+        <v>0.09727357121914088</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06533088401286299</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.06245603778269846</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06243725585243442</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.1018888833260922</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B7" t="n">
+        <v>0.05629632420719616</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.06310580597430732</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B8" t="n">
+        <v>0.03701457637876737</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.02466262315029174</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.01978388261588016</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.01888070326686233</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B9" t="n">
-        <v>0.01787066767858003</v>
+        <v>0.005236849629388213</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.00523936954245194</v>
+        <v>0.0008254525486077009</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01649024573177364</v>
+        <v>-0.06018340089859189</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,108 +1819,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1678177597451286</v>
+        <v>0.1488416661732002</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.09916774522624436</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.09645090048426433</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.09640210384411106</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1189941074086719</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B6" t="n">
+        <v>0.0734015482897758</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.08438274062297418</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.05377874531744603</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.05284555125853897</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B7" t="n">
-        <v>0.0517075288919614</v>
+        <v>0.07196468038334194</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01771920543134174</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.03862153601531664</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="B9" t="n">
+        <v>0.0125303064197767</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.02950260720510363</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
       <c r="B10" t="n">
-        <v>0.0116543833402821</v>
+        <v>0.0100768336842001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05047310694515499</v>
+        <v>-0.09416626211197324</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,108 +1985,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.161709915743613</v>
+        <v>0.1427338221716846</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1410806641866149</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1383638194446348</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1383150228044815</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.09758248811046712</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.09569166427781652</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.09475847021890946</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B6" t="n">
-        <v>0.09362044785233187</v>
+        <v>0.05198992899157102</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04008613800461301</v>
+        <v>0.02766807776498077</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0198953130811823</v>
+        <v>0.02596013517224194</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01511756374155248</v>
+        <v>-0.004308209779351047</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002837417524597083</v>
+        <v>-0.02325381207094286</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.09238602590552546</v>
+        <v>-0.1360791810723437</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1991,108 +2151,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1704522397616193</v>
+        <v>0.1514761461896909</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1500311002847764</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1046421003759781</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B4" t="n">
+        <v>0.1473142555427964</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.103708906317071</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B5" t="n">
-        <v>0.1025708839504934</v>
+        <v>0.1472654589026431</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04759400767122865</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.08705240472810913</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
       <c r="B7" t="n">
-        <v>0.06001206791086089</v>
+        <v>0.04145984560921304</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02981411796840373</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.0310813251578183</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
       <c r="B9" t="n">
-        <v>0.02374929587734409</v>
+        <v>0.01165555163691478</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002605883672842146</v>
+        <v>-0.02348534592269779</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101336462003687</v>
+        <v>-0.1450296171705053</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2115,108 +2317,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.168467255273924</v>
+        <v>0.1494911617019956</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1435758344094124</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.09818683450061401</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B4" t="n">
+        <v>0.1408589896674323</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.09725364044170695</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B5" t="n">
-        <v>0.09611561807512936</v>
+        <v>0.140810193027279</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05195792587932004</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.08715021880032042</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
       <c r="B7" t="n">
-        <v>0.06437598611895229</v>
+        <v>0.04155765968142433</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.028358461950074</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.02415754981187001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
       <c r="B9" t="n">
-        <v>0.02229363985901436</v>
+        <v>0.004731776290966484</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007418223431280905</v>
+        <v>-0.01867300616425904</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.09488119612832296</v>
+        <v>-0.1385743512951412</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2239,108 +2483,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1703429786779208</v>
+        <v>0.1513668851059924</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1190465943642206</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1163297496222406</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1151539529820873</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.09007386074790326</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.123817084457493</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1024919209875355</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.07365759445542228</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.07159740039651522</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B7" t="n">
-        <v>0.07158637802993761</v>
+        <v>0.0782245253385969</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03002092678561754</v>
+        <v>0.03608574887667718</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>binancecoin</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.008660777003159105</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.01217283377750689</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>binancecoin</t>
-        </is>
-      </c>
       <c r="B10" t="n">
-        <v>0.01076499651774443</v>
+        <v>-0.01391839581803305</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.07035195608313122</v>
+        <v>-0.1140451112499494</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2354,7 +2640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2363,108 +2649,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1398249451491249</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1389787898911049</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1389422343831328</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.1515220254127991</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="B5" t="n">
+        <v>0.1325459318408707</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.07144093065950896</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1123660434252374</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0971527899823066</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.09538568179756067</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.09151857355682196</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
       <c r="B7" t="n">
-        <v>0.0838589908991412</v>
+        <v>0.06677348430634136</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02364942629945813</v>
+        <v>0.02971424839051777</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01714045419061462</v>
+        <v>-0.002285319330288901</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02422208058571867</v>
+        <v>-0.05031331018125862</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.09384715161001553</v>
+        <v>-0.1375403067768338</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2478,7 +2806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2487,108 +2815,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1828924945087055</v>
+        <v>0.163916400936777</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1165984647610453</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1163301793655244</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1156722529030091</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.08474511223886977</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1282203455979807</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.09716317247850201</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.07392630959422695</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.07277362677995232</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B7" t="n">
-        <v>0.06821203656872614</v>
+        <v>0.08262778647908461</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0604433776766151</v>
+        <v>0.04101760415571157</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0232232802588406</v>
+        <v>0.02928810234990024</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008091312901272248</v>
+        <v>-0.01799991669426769</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.07054061462191971</v>
+        <v>-0.1142337697887379</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2602,7 +2972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2611,108 +2981,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1249939296695423</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1247256442740215</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1234147178115061</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.141752342484671</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="B5" t="n">
+        <v>0.1227762489127425</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1047433005463184</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.08232177450272402</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.08116909168844938</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B6" t="n">
-        <v>0.07595450147722319</v>
+        <v>0.05915074142742226</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0518891001376668</v>
+        <v>0.03246332661676327</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03760941623422317</v>
+        <v>0.02519135599459093</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01599838368999546</v>
+        <v>0.0220632057810551</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02551429228118843</v>
+        <v>-0.05160552187672836</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.07893607953041679</v>
+        <v>-0.122629234697235</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2726,7 +3138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2735,108 +3147,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1673197191805517</v>
+        <v>0.20999187434737</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1663760800564084</v>
+        <v>0.2099326326419804</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>binance-usd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1617801306501284</v>
+        <v>0.2092403469844114</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1077420258151621</v>
+        <v>0.08876593224323365</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>binancecoin</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05913122786782443</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.08259838808128893</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>binancecoin</t>
-        </is>
-      </c>
       <c r="B7" t="n">
-        <v>0.07855700138872795</v>
+        <v>0.03700582896239284</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03150405923183634</v>
+        <v>0.0190859989922041</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0008270992752765927</v>
+        <v>0.005237722815783048</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0288884406266165</v>
+        <v>-0.05497967022215643</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1639340242082445</v>
+        <v>-0.2076271793750628</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2859,108 +3313,115 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03847150466055981</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03456784091184894</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03367044349309511</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.05985643064065788</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="B5" t="n">
+        <v>0.0288608434761038</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01352296140650711</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>solana</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01054623871815024</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>binancecoin</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.002365228418176751</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>cardano</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.006068753804326745</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.0522909712263294</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>solana</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.04717002856690099</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>binancecoin</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.01536241251335354</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.01022655461542368</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>cardano</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0016674433001614</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="B10" t="n">
+        <v>-0.007877974089322559</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.001289904569126946</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.001289904569126946</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.001289904569126946</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
       <c r="B11" t="n">
-        <v>-0.001302904569126987</v>
+        <v>-0.03470444349309509</v>
       </c>
     </row>
   </sheetData>
@@ -2974,7 +3435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2983,108 +3444,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1675984735454144</v>
+        <v>0.2111550261309865</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2100515714829622</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1667539436791026</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B4" t="n">
-        <v>0.1625913551486793</v>
+        <v>0.2094260988459209</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08805225492180273</v>
+        <v>0.06907616134987429</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>binancecoin</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04180899792708515</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03319030109886983</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.0751059352370165</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>binancecoin</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.06123477144798867</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
       <c r="B8" t="n">
-        <v>0.04560836133850207</v>
+        <v>0.02951337611812041</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00862598032165476</v>
+        <v>-0.002561158230595119</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03517983675015722</v>
+        <v>-0.06127106634569716</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1647452487067954</v>
+        <v>-0.2084384038736136</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3098,7 +3601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3107,108 +3610,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1848429043356061</v>
+        <v>0.2283994569211782</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.227296002273154</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1839983744692944</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B4" t="n">
-        <v>0.179835785938871</v>
+        <v>0.2266705296361127</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07161944356809299</v>
+        <v>0.05264334999616455</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06318422772980448</v>
+        <v>0.04375845420890095</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03921461011617603</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02299672320081348</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.05284698002269361</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.05163267035580828</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
       <c r="B9" t="n">
-        <v>0.01693190110975384</v>
+        <v>0.007254420903797524</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05474948329268127</v>
+        <v>-0.0808407128882212</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1819896794969872</v>
+        <v>-0.2256828346638054</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3231,108 +3776,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1952311381874936</v>
+        <v>0.2387876907730657</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1947506782226029</v>
+        <v>0.2374228333894212</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>binance-usd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1868660822481647</v>
+        <v>0.2343262985824476</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08578240445691691</v>
+        <v>0.06680631088498848</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05887316471057297</v>
+        <v>0.03944739118966945</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0353889924772693</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.03286941836657571</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.0579239148770237</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.04780705271690154</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
       <c r="B9" t="n">
-        <v>0.02680459627551606</v>
+        <v>0.0123313557581276</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.06606269364310333</v>
+        <v>-0.09215392323864326</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1927419832502957</v>
+        <v>-0.2364351384171139</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3346,7 +3933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3355,108 +3942,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2024419558947151</v>
+        <v>0.2459985084802872</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2019614959298245</v>
+        <v>0.2446336510966428</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>binance-usd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1940768999553863</v>
+        <v>0.2415371162896692</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07614320103146198</v>
+        <v>0.05716710745953354</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06420645949636894</v>
+        <v>0.04478068597546543</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02453876239559934</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01907897274117305</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.04952715175927304</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.03695682263523159</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
       <c r="B9" t="n">
-        <v>0.01301415065011341</v>
+        <v>0.003934592640376947</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.08584899919323961</v>
+        <v>-0.1119402287887795</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1999528009575173</v>
+        <v>-0.2436459561243355</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3470,7 +4099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3479,108 +4108,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2095814070779828</v>
+        <v>0.253137959663555</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2091009471130922</v>
+        <v>0.2517731022799106</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>binance-usd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.201216351138654</v>
+        <v>0.2486765674729369</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1029554272006714</v>
+        <v>0.08397933362874296</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05440249124544237</v>
+        <v>0.03497671772453885</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02162523924719566</v>
+        <v>0.0276900613382553</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01853539658129232</v>
+        <v>0.006117336341660087</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.013003131164053</v>
+        <v>-0.03258942795484309</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1098655428531175</v>
+        <v>-0.1359567724486574</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.207092252140785</v>
+        <v>-0.2507854073076032</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3594,7 +4265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,108 +4274,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1996645466392802</v>
+        <v>0.2432210992248523</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1991840866743896</v>
+        <v>0.2418562418412079</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>binance-usd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.192001309722751</v>
+        <v>0.2394615260570339</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1253308457272065</v>
+        <v>0.106354752155278</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04694338810320672</v>
+        <v>0.02751761458230319</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02443533262289283</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.03680434679574754</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
       <c r="B8" t="n">
-        <v>0.01837051053183319</v>
+        <v>0.0243862865561153</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.004147841850615702</v>
+        <v>-0.04144471726828039</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.07519356170544338</v>
+        <v>-0.1012847913009833</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1971753917020823</v>
+        <v>-0.2408685468689006</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +4431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3727,108 +4440,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1971442724772828</v>
+        <v>0.2398164276441011</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1951178098946759</v>
+        <v>0.238674362480248</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>binance-usd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1902595843561157</v>
+        <v>0.2377198006903987</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1260865497373826</v>
+        <v>0.1071104561654541</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04375328478249058</v>
+        <v>0.03133522454285833</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03996492359935146</v>
+        <v>0.02053915007844793</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.009334206101124398</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.01501125345996048</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
       <c r="B9" t="n">
-        <v>0.003269384010064756</v>
+        <v>-0.03058130565893561</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.07054364118513377</v>
+        <v>-0.0966348707806737</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1951355775049755</v>
+        <v>-0.2388287326717938</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +4597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3851,108 +4606,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1753769684166886</v>
+        <v>0.2180491235835069</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1727135058340817</v>
+        <v>0.2162700584196538</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>binance-usd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1678602802955215</v>
+        <v>0.2153204966298045</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1097850616407977</v>
+        <v>0.09080896806886926</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05713893071448506</v>
+        <v>0.04472087047485282</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01563698771515403</v>
+        <v>-0.003788785805749499</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01074368753065742</v>
+        <v>-0.004678865439597778</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>solana</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.07163873190122927</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-0.03597542232838258</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>solana</t>
-        </is>
-      </c>
       <c r="B10" t="n">
-        <v>-0.04554750230568934</v>
+        <v>-0.08156798144727867</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1734682734443813</v>
+        <v>-0.2171614286111996</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3966,7 +4763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3975,108 +4772,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1550302069593595</v>
+        <v>0.1977023621261778</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1524447443767528</v>
+        <v>0.1960012969623249</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>binance-usd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1431955188381925</v>
+        <v>0.1906557351724755</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.124447476748609</v>
+        <v>0.1054713831766805</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1065845630309049</v>
+        <v>0.09416650279127264</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.001412435802599635</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>binancecoin</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.003224213929745133</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.02225410972964695</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>binancecoin</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.01620155959115839</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
       <c r="B9" t="n">
-        <v>-0.004652386288460006</v>
+        <v>-0.02333844938924914</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0384938593914336</v>
+        <v>-0.06458508898697353</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1531995119870523</v>
+        <v>-0.1968926671538705</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4090,7 +4929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4099,108 +4938,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1922765495442639</v>
+        <v>0.2349487047110822</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1896910869616571</v>
+        <v>0.2332476395472292</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>binance-usd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1804418614230969</v>
+        <v>0.2279020777573799</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1051431053912324</v>
+        <v>0.08616701181930395</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08548884793997408</v>
+        <v>0.07307078770034184</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03292960949313585</v>
+        <v>0.01350383597223233</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.003017696046914826</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.007831991604110106</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
       <c r="B9" t="n">
-        <v>-0.009082518137974466</v>
+        <v>-0.03776056751478599</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05763849425013841</v>
+        <v>-0.08372972384567834</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1904458545719567</v>
+        <v>-0.2341390097387749</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4214,7 +5095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4223,108 +5104,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05099097372426725</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04254157500019005</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03863791125147917</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03774051383272534</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.06379852652862308</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.06340903396389949</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B6" t="n">
+        <v>0.03770729693308315</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>cardano</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01970007804547159</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01535492669123148</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.04866223446136342</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>cardano</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.03867617161740003</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B9" t="n">
+        <v>0.00306967534246733</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.01666918983441683</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.009290104600171841</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="B10" t="n">
+        <v>-0.002756583686486695</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.004918641334092921</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.004918641334092921</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.004918641334092921</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
       <c r="B11" t="n">
-        <v>-0.004931641334092962</v>
+        <v>-0.03877451383272532</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4338,7 +5261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,232 +5270,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>tether</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1585871667585147</v>
+        <v>0.2025725106220384</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>usd-coin</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1555627041759079</v>
+        <v>0.2009204693818602</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>binance-usd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1476613038506413</v>
+        <v>0.195525883668336</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.08390799435643785</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.09534846833178202</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
       <c r="B6" t="n">
-        <v>0.08842948036068179</v>
+        <v>0.06291249044653352</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03350333941196813</v>
+        <v>0.002695608338366604</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008629170683588819</v>
+        <v>-0.01107605208086192</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02862460274056826</v>
+        <v>-0.01502539655188662</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05032615840097474</v>
+        <v>-0.07305548743041711</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1567564717862074</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1540914237782512</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1507754638157908</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1421655618713779</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>cardano</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.09378079645701685</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.08645709825739606</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>polkadot</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.04896219580290252</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>binancecoin</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.01956092115145534</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.03311727950191852</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>solana</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.04864900896297383</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>bitcoin</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.151260729806944</v>
+        <v>-0.2017628156497311</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4586,7 +5427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4595,108 +5436,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1134999126622701</v>
+        <v>0.0945238190903416</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05345765064519881</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.07355421411694869</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
       <c r="B4" t="n">
-        <v>0.06587571088483106</v>
+        <v>0.04746298452140876</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.04692511328184049</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04411782116114735</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.04329946197668758</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.03202324330779485</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>binancecoin</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01024085120712181</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.05083728851804804</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>binancecoin</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.02966662472802534</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.02595842121673521</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0006273068098692838</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0005612685755752543</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="B10" t="n">
+        <v>0.005244729399151955</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1.030524425273127e-07</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B11" t="n">
-        <v>-0.0005351030524424795</v>
+        <v>-0.04369305211437571</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4710,7 +5593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4719,108 +5602,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1111490275541565</v>
+        <v>0.09217293398222806</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05808321087108324</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>solana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04640140017953199</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.09188152051016259</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>solana</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.07249262977507193</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
       <c r="B5" t="n">
-        <v>0.0705012711107155</v>
+        <v>0.04628896139126649</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.03974239491934511</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03693510279865198</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.03614874463822502</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02151661491206033</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.03166654283475191</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.01545179282100069</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="B10" t="n">
+        <v>0.01224076931384838</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.007182821414937899</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.006523410528593285</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.006621449786920117</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B11" t="n">
-        <v>-0.007717821414937851</v>
+        <v>-0.03651033375188034</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4834,7 +5759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4843,108 +5768,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.130106116175512</v>
+        <v>0.1111300226035836</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.06704661794203057</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05843426440289241</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05725683577310044</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05678463799784091</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1006492308388579</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.07946467818166282</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B7" t="n">
+        <v>0.05505667171996179</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.03436735502297508</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.05192820420908337</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.02830253293191544</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B9" t="n">
+        <v>0.02583697461354343</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.02506843820710378</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.01411248283102261</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.01370028318752834</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B10" t="n">
-        <v>0.01097404806860944</v>
+        <v>0.005642664686200255</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01144404384333477</v>
+        <v>-0.05513719901015301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4958,7 +5925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4967,108 +5934,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1283473735703152</v>
+        <v>0.1093712799983868</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.06727339065967244</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05784090977477634</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05666348114498437</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05619128336972485</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1014763307561963</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.07969145089930468</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B7" t="n">
+        <v>0.05588377163730023</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.03218511587718155</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.05449540583886864</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.02612029378612191</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B9" t="n">
+        <v>0.0284041762433287</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.01359976137991288</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.01351912820290655</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.01310692855941228</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B10" t="n">
-        <v>0.01038069344049338</v>
+        <v>-0.005826012140990642</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01085068921521871</v>
+        <v>-0.05454384438203694</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5082,7 +6091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5091,108 +6100,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1355573323295906</v>
+        <v>0.1165812387576622</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.07561413720846086</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07258629085713716</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07239116983213745</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06682310817027812</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.08950513767894881</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.07924116840991037</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B7" t="n">
+        <v>0.04391257856005273</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.05837765788308737</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.02971901466531914</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.02902973827156508</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B8" t="n">
-        <v>0.02815392087417789</v>
+        <v>0.03228642828754743</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>ripple</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02381349522288036</v>
+        <v>0.02987831731394</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02223005214930301</v>
+        <v>0.002804278628399492</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0267734989273715</v>
+        <v>-0.07046665409418976</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5206,7 +6257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5215,108 +6266,150 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Coin</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>cardano</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.134323116036354</v>
+        <v>0.1153470224644256</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>ethereum</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1012130652745896</v>
+        <v>0.08879500503495741</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06547615861931108</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>tether</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.06225319124298766</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>usd-coin</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06211531226798738</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>polkadot</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.09351143065981314</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B7" t="n">
+        <v>0.04791887154091705</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>solana</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.04571840605094983</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>tether</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.01958103607616937</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>usd-coin</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.01855875968241528</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>binance-usd</t>
-        </is>
-      </c>
       <c r="B8" t="n">
-        <v>0.01801594228502812</v>
+        <v>0.01962717645540989</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>ripple</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.0004436117455037985</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>binancecoin</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.0106722240641997</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>ripple</t>
-        </is>
-      </c>
       <c r="B10" t="n">
-        <v>-0.006508433836563439</v>
+        <v>-0.00875354945670383</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>bitcoin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01663552033822173</v>
+        <v>-0.06032867550503997</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
